--- a/Template/Шаблон для загрузки видов документов.xlsx
+++ b/Template/Шаблон для загрузки видов документов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kondrateva_SS\Desktop\тестирование\Загрузка данных\XLSX для тестирования\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaytsev_IS\Desktop\Обновленные шаблоны после тестирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,6 @@
       <c r="H2" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
